--- a/Диссертация/Материалы/recalc trend.xlsx
+++ b/Диссертация/Материалы/recalc trend.xlsx
@@ -16,16 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>Фактич. 
-данные</t>
+    <t>Сумма</t>
   </si>
   <si>
-    <t>Сумма</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Время (месяцы)</t>
+  </si>
+  <si>
+    <t>Объем продаж</t>
   </si>
 </sst>
 </file>
@@ -204,8 +215,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8EB348"/>
       <color rgb="FF2F7174"/>
-      <color rgb="FF8EB348"/>
       <color rgb="FF3D9743"/>
     </mruColors>
   </colors>
@@ -213,6 +224,280 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5337703311623261E-2"/>
+          <c:y val="2.189244730058967E-2"/>
+          <c:w val="0.69714264854584418"/>
+          <c:h val="0.84462251042149139"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Объем продаж</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875"/>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="8EB348"/>
+                </a:solidFill>
+                <a:prstDash val="lgDashDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="lgDashDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8175.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5079.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4508.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2258.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3401.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2969.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2148.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1326.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2291.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2954.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4217.29</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>8228.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8992.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5587.17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4958.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2483.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3741.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3266.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2362.86</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1459.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2521.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3249.68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4638.92</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>9051.3264999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="80681984"/>
+        <c:axId val="80704256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80681984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80704256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80704256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80681984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -308,18 +593,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Фактич. 
-данные</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="15875"/>
           </c:spPr>
@@ -333,17 +606,6 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="6"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.5238024934383202E-2"/>
-                  <c:y val="-6.606349687058348E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            </c:trendlineLbl>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -351,19 +613,20 @@
                 <a:solidFill>
                   <a:srgbClr val="8EB348"/>
                 </a:solidFill>
-                <a:prstDash val="lgDashDot"/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
           </c:trendline>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="lgDashDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="log"/>
           </c:trendline>
           <c:val>
             <c:numRef>
@@ -448,25 +711,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91220224"/>
-        <c:axId val="93504256"/>
+        <c:axId val="47625344"/>
+        <c:axId val="47643264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91220224"/>
+        <c:axId val="47625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93504256"/>
+        <c:crossAx val="47643264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93504256"/>
+        <c:axId val="47643264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,17 +736,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91220224"/>
+        <c:crossAx val="47625344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -502,15 +760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -524,6 +782,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -819,13 +1107,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="61.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
@@ -1040,6 +1328,9 @@
         <f t="shared" si="0"/>
         <v>1419.4300000000012</v>
       </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" thickBot="1">
       <c r="A14" s="2">
@@ -1092,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" thickBot="1">
+    <row r="17" spans="1:10" ht="19.5" thickBot="1">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -1108,7 +1399,7 @@
         <v>1751.0700000000038</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" thickBot="1">
+    <row r="18" spans="1:10" ht="19.5" thickBot="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1124,7 +1415,7 @@
         <v>1770.3200000000033</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" thickBot="1">
+    <row r="19" spans="1:10" ht="19.5" thickBot="1">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -1140,7 +1431,7 @@
         <v>949.52000000000544</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -1156,7 +1447,7 @@
         <v>-49.979999999989559</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" thickBot="1">
+    <row r="21" spans="1:10" ht="19.5" thickBot="1">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -1171,8 +1462,14 @@
         <f t="shared" si="0"/>
         <v>1079.4800000000182</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="19.5" thickBot="1">
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" thickBot="1">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1188,7 +1485,7 @@
         <v>2476.9300000000144</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" thickBot="1">
+    <row r="23" spans="1:10" ht="19.5" thickBot="1">
       <c r="A23" s="2">
         <v>11</v>
       </c>
@@ -1204,7 +1501,7 @@
         <v>5664.3000000000284</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" thickBot="1">
+    <row r="24" spans="1:10" ht="19.5" thickBot="1">
       <c r="A24" s="2">
         <v>12</v>
       </c>
@@ -1220,9 +1517,12 @@
         <v>13623.336499999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1"/>
@@ -1751,7 +2051,7 @@
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" s="16">
         <v>200561993</v>

--- a/Диссертация/Материалы/recalc trend.xlsx
+++ b/Диссертация/Материалы/recalc trend.xlsx
@@ -215,9 +215,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3D9743"/>
+      <color rgb="FF2F7174"/>
       <color rgb="FF8EB348"/>
-      <color rgb="FF2F7174"/>
-      <color rgb="FF3D9743"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -233,10 +233,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5337703311623261E-2"/>
-          <c:y val="2.189244730058967E-2"/>
-          <c:w val="0.69714264854584418"/>
-          <c:h val="0.84462251042149139"/>
+          <c:x val="7.5337703311623289E-2"/>
+          <c:y val="2.1892447300589674E-2"/>
+          <c:w val="0.69714264854584429"/>
+          <c:h val="0.84462251042149161"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -347,12 +347,12 @@
             <c:spPr>
               <a:ln w="19050">
                 <a:solidFill>
-                  <a:srgbClr val="8EB348"/>
+                  <a:srgbClr val="2F7174"/>
                 </a:solidFill>
-                <a:prstDash val="lgDashDot"/>
               </a:ln>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -364,6 +364,16 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="log"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0731225271414464E-2"/>
+                  <c:y val="-0.27384638458654209"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:val>
             <c:numRef>
@@ -448,25 +458,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80681984"/>
-        <c:axId val="80704256"/>
+        <c:axId val="83892864"/>
+        <c:axId val="83906944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80681984"/>
+        <c:axId val="83892864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80704256"/>
+        <c:crossAx val="83906944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80704256"/>
+        <c:axId val="83906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +484,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80681984"/>
+        <c:crossAx val="83892864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -491,7 +501,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -617,17 +627,6 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-                <a:prstDash val="lgDashDot"/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$24</c:f>
@@ -711,24 +710,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47625344"/>
-        <c:axId val="47643264"/>
+        <c:axId val="83938304"/>
+        <c:axId val="83825408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47625344"/>
+        <c:axId val="83938304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47643264"/>
+        <c:crossAx val="83825408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47643264"/>
+        <c:axId val="83825408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +735,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47625344"/>
+        <c:crossAx val="83938304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -749,7 +748,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -759,16 +758,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -790,15 +789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1107,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
